--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1693507248236931</v>
+        <v>0.1233454777090742</v>
       </c>
       <c r="H2" t="n">
-        <v>28.86148910033299</v>
+        <v>-6.144588705300275</v>
       </c>
       <c r="I2" t="n">
-        <v>-14.76790855016653</v>
+        <v>10.03916008152928</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1382978391135972</v>
+        <v>0.1164891597298832</v>
       </c>
       <c r="H3" t="n">
-        <v>55.32591418775856</v>
+        <v>30.83201692794194</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.58028238513735</v>
+        <v>-0.5882086705124271</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.697802029635247</v>
+        <v>4.409694460364111</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5996994476868939</v>
+        <v>-0.6085178130136797</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.784133246361072</v>
+        <v>0.3399041458321979</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2197314614469976</v>
+        <v>0.1725906262255135</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.7173863814353</v>
+        <v>-29.87193507018294</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3879635435619002</v>
+        <v>0.3937975325801231</v>
       </c>
       <c r="H7" t="n">
-        <v>136.8202556095039</v>
+        <v>140.3814324093497</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1198170173450243</v>
+        <v>0.1593147625250467</v>
       </c>
       <c r="H8" t="n">
-        <v>-27.51933091832695</v>
+        <v>-3.626038785860626</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1473504846659191</v>
+        <v>0.230044738459763</v>
       </c>
       <c r="H9" t="n">
-        <v>-24.4714915810215</v>
+        <v>17.91570285563228</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1365902880213924</v>
+        <v>-0.129448245585633</v>
       </c>
       <c r="H10" t="n">
-        <v>139.0184039396968</v>
+        <v>-126.5205930880392</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1052284310589315</v>
+        <v>-0.1361811319077837</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.400255232894</v>
+        <v>-14.66115580843429</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1988219254682709</v>
+        <v>0.1651443927579213</v>
       </c>
       <c r="H12" t="n">
-        <v>25.02220863005685</v>
+        <v>3.845270972188648</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2343692992921737</v>
+        <v>0.2732445103411564</v>
       </c>
       <c r="H13" t="n">
-        <v>13.95862496016101</v>
+        <v>32.86112460306565</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2217962412808798</v>
+        <v>0.1670501791011007</v>
       </c>
       <c r="H14" t="n">
-        <v>17.12131713847495</v>
+        <v>-11.78778823504936</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2381200714190401</v>
+        <v>0.21491546478028</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.715922652550475</v>
+        <v>-14.0012782322312</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03626374417907349</v>
+        <v>-0.01353604261625696</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5934793043425817</v>
+        <v>-137.1051288533722</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0115688782384618</v>
+        <v>0.005065242007242547</v>
       </c>
       <c r="H17" t="n">
-        <v>-67.38459038076358</v>
+        <v>-85.71988230133326</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1366016945550128</v>
+        <v>0.09163839213934212</v>
       </c>
       <c r="H18" t="n">
-        <v>-21.18264047065637</v>
+        <v>-47.12586748308052</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824449728236547</v>
+        <v>0.0890493099100888</v>
       </c>
       <c r="H19" t="n">
-        <v>45.08206904098957</v>
+        <v>-29.18709719168035</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04558121044087569</v>
+        <v>0.04115238075865552</v>
       </c>
       <c r="H20" t="n">
-        <v>-60.24385957476363</v>
+        <v>-64.10670509954818</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08791880521134085</v>
+        <v>0.08526401494366023</v>
       </c>
       <c r="H21" t="n">
-        <v>-12.43044489110044</v>
+        <v>-15.07468922642086</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07192048004568227</v>
+        <v>0.06602384018274093</v>
       </c>
       <c r="H22" t="n">
-        <v>-23.64896818549328</v>
+        <v>-29.90886157730819</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06711181853898311</v>
+        <v>0.1014958325285188</v>
       </c>
       <c r="H23" t="n">
-        <v>-38.14008107266697</v>
+        <v>-6.446821016638834</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1925986207230647</v>
+        <v>-0.2466159566609749</v>
       </c>
       <c r="H24" t="n">
-        <v>54.54333343407887</v>
+        <v>-97.88746086205579</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2529677355079935</v>
+        <v>-0.2651334617833642</v>
       </c>
       <c r="H25" t="n">
-        <v>13.7168299464137</v>
+        <v>-19.18570060398115</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1790689509268548</v>
+        <v>0.1678981730777884</v>
       </c>
       <c r="H26" t="n">
-        <v>12.63486196439375</v>
+        <v>5.608412015633782</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.163135494559085</v>
+        <v>0.1525105849795829</v>
       </c>
       <c r="H27" t="n">
-        <v>-18.62200034308458</v>
+        <v>-23.92209699251315</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02250795093069029</v>
+        <v>0.03625025585004506</v>
       </c>
       <c r="H28" t="n">
-        <v>-380.2825537839109</v>
+        <v>551.4100069019112</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02256982269894593</v>
+        <v>0.05470951859184871</v>
       </c>
       <c r="H29" t="n">
-        <v>-246.771807307517</v>
+        <v>255.7766061239308</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1233454777090742</v>
+        <v>0.1652337620803336</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.144588705300275</v>
+        <v>25.72883082424822</v>
       </c>
       <c r="I2" t="n">
-        <v>10.03916008152928</v>
+        <v>0.8347300422188886</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1164891597298832</v>
+        <v>0.1655756587848228</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83201692794194</v>
+        <v>85.96234570858464</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5882086705124271</v>
+        <v>-0.655923810589321</v>
       </c>
       <c r="H4" t="n">
-        <v>4.409694460364111</v>
+        <v>-6.594752182645347</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6085178130136797</v>
+        <v>-0.6371405766420055</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3399041458321979</v>
+        <v>-4.347793249060684</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1725906262255135</v>
+        <v>0.1689637756546086</v>
       </c>
       <c r="H6" t="n">
-        <v>-29.87193507018294</v>
+        <v>-31.34561888424378</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3937975325801231</v>
+        <v>0.4254155322855189</v>
       </c>
       <c r="H7" t="n">
-        <v>140.3814324093497</v>
+        <v>159.6816550626114</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1593147625250467</v>
+        <v>0.08830721041578046</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.626038785860626</v>
+        <v>-46.58049551308035</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.230044738459763</v>
+        <v>0.1992121179262586</v>
       </c>
       <c r="H9" t="n">
-        <v>17.91570285563228</v>
+        <v>2.11160255135567</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.129448245585633</v>
+        <v>-0.1341829475738907</v>
       </c>
       <c r="H10" t="n">
-        <v>-126.5205930880392</v>
+        <v>-134.805815476517</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1361811319077837</v>
+        <v>-0.109455549111238</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.66115580843429</v>
+        <v>7.841126043511351</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1651443927579213</v>
+        <v>0.1775623371375107</v>
       </c>
       <c r="H12" t="n">
-        <v>3.845270972188648</v>
+        <v>11.6538606401789</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2732445103411564</v>
+        <v>0.2117070689364375</v>
       </c>
       <c r="H13" t="n">
-        <v>32.86112460306565</v>
+        <v>2.939448738404239</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1670501791011007</v>
+        <v>0.1756681301008408</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.78778823504936</v>
+        <v>-7.237008806618123</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.21491546478028</v>
+        <v>0.2441129211629131</v>
       </c>
       <c r="H15" t="n">
-        <v>-14.0012782322312</v>
+        <v>-2.317875502959454</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01353604261625696</v>
+        <v>0.01193136951809479</v>
       </c>
       <c r="H16" t="n">
-        <v>-137.1051288533722</v>
+        <v>-67.29361631630812</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005065242007242547</v>
+        <v>0.03641696880843781</v>
       </c>
       <c r="H17" t="n">
-        <v>-85.71988230133326</v>
+        <v>2.668066021246247</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09163839213934212</v>
+        <v>0.1181562475056396</v>
       </c>
       <c r="H18" t="n">
-        <v>-47.12586748308052</v>
+        <v>-31.82541790109614</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0890493099100888</v>
+        <v>0.04799839224036676</v>
       </c>
       <c r="H19" t="n">
-        <v>-29.18709719168035</v>
+        <v>-61.83119792725517</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04115238075865552</v>
+        <v>0.065762899552701</v>
       </c>
       <c r="H20" t="n">
-        <v>-64.10670509954818</v>
+        <v>-42.64129793614874</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08526401494366023</v>
+        <v>0.06723075276597795</v>
       </c>
       <c r="H21" t="n">
-        <v>-15.07468922642086</v>
+        <v>-33.03631577793913</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06602384018274093</v>
+        <v>0.08742614434894451</v>
       </c>
       <c r="H22" t="n">
-        <v>-29.90886157730819</v>
+        <v>-7.188101019819934</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1014958325285188</v>
+        <v>0.08035673685045888</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.446821016638834</v>
+        <v>-25.93165652414849</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2466159566609749</v>
+        <v>-0.1815593367286216</v>
       </c>
       <c r="H24" t="n">
-        <v>-97.88746086205579</v>
+        <v>-45.68528584878585</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2651334617833642</v>
+        <v>-0.22599331416355</v>
       </c>
       <c r="H25" t="n">
-        <v>-19.18570060398115</v>
+        <v>-1.590992322223615</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1678981730777884</v>
+        <v>0.1809830026419857</v>
       </c>
       <c r="H26" t="n">
-        <v>5.608412015633782</v>
+        <v>13.83880575035217</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1525105849795829</v>
+        <v>0.1809405298450141</v>
       </c>
       <c r="H27" t="n">
-        <v>-23.92209699251315</v>
+        <v>-9.740192252786208</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03625025585004506</v>
+        <v>0.02184480892098121</v>
       </c>
       <c r="H28" t="n">
-        <v>551.4100069019112</v>
+        <v>372.0247102967358</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05470951859184871</v>
+        <v>-0.0001667807417942164</v>
       </c>
       <c r="H29" t="n">
-        <v>255.7766061239308</v>
+        <v>-101.0845770134636</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>